--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.435824</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H2">
-        <v>160.307472</v>
+        <v>155.808877</v>
       </c>
       <c r="I2">
-        <v>0.8055519732580868</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J2">
-        <v>0.8055519732580869</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.535386</v>
+        <v>0.667106</v>
       </c>
       <c r="N2">
-        <v>10.606158</v>
+        <v>2.001318</v>
       </c>
       <c r="O2">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="P2">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="Q2">
-        <v>188.916264068064</v>
+        <v>34.64701223332067</v>
       </c>
       <c r="R2">
-        <v>1700.246376612576</v>
+        <v>311.823110099886</v>
       </c>
       <c r="S2">
-        <v>0.01602039756916276</v>
+        <v>0.0029407934366848</v>
       </c>
       <c r="T2">
-        <v>0.01602039756916276</v>
+        <v>0.0029407934366848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.435824</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H3">
-        <v>160.307472</v>
+        <v>155.808877</v>
       </c>
       <c r="I3">
-        <v>0.8055519732580868</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J3">
-        <v>0.8055519732580869</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>521.456741</v>
       </c>
       <c r="O3">
-        <v>0.9777772251268709</v>
+        <v>0.9945745510447523</v>
       </c>
       <c r="P3">
-        <v>0.9777772251268707</v>
+        <v>0.9945745510447522</v>
       </c>
       <c r="Q3">
-        <v>9288.156878563193</v>
+        <v>9027.509913254427</v>
       </c>
       <c r="R3">
-        <v>83593.41190706876</v>
+        <v>81247.58921928985</v>
       </c>
       <c r="S3">
-        <v>0.7876503731077674</v>
+        <v>0.7662433263718438</v>
       </c>
       <c r="T3">
-        <v>0.7876503731077674</v>
+        <v>0.7662433263718437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.435824</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H4">
-        <v>160.307472</v>
+        <v>155.808877</v>
       </c>
       <c r="I4">
-        <v>0.8055519732580868</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J4">
-        <v>0.8055519732580869</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.346056</v>
+        <v>0.260372</v>
       </c>
       <c r="N4">
-        <v>1.038168</v>
+        <v>0.7811159999999999</v>
       </c>
       <c r="O4">
-        <v>0.001946656254378565</v>
+        <v>0.001489822709979835</v>
       </c>
       <c r="P4">
-        <v>0.001946656254378564</v>
+        <v>0.001489822709979834</v>
       </c>
       <c r="Q4">
-        <v>18.491787510144</v>
+        <v>13.52275630741467</v>
       </c>
       <c r="R4">
-        <v>166.426087591296</v>
+        <v>121.704806766732</v>
       </c>
       <c r="S4">
-        <v>0.001568132786969849</v>
+        <v>0.001147794006794265</v>
       </c>
       <c r="T4">
-        <v>0.001568132786969849</v>
+        <v>0.001147794006794265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.435824</v>
+        <v>51.93629233333333</v>
       </c>
       <c r="H5">
-        <v>160.307472</v>
+        <v>155.808877</v>
       </c>
       <c r="I5">
-        <v>0.8055519732580868</v>
+        <v>0.7704232182162135</v>
       </c>
       <c r="J5">
-        <v>0.8055519732580869</v>
+        <v>0.7704232182162134</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.06908833333333335</v>
+        <v>0.020712</v>
       </c>
       <c r="N5">
-        <v>0.207265</v>
+        <v>0.062136</v>
       </c>
       <c r="O5">
-        <v>0.0003886400934759821</v>
+        <v>0.0001185120057805845</v>
       </c>
       <c r="P5">
-        <v>0.0003886400934759819</v>
+        <v>0.0001185120057805844</v>
       </c>
       <c r="Q5">
-        <v>3.691792020453335</v>
+        <v>1.075704486808</v>
       </c>
       <c r="R5">
-        <v>33.22612818408001</v>
+        <v>9.681340381271999</v>
       </c>
       <c r="S5">
-        <v>0.0003130697941867847</v>
+        <v>9.130440089073638E-05</v>
       </c>
       <c r="T5">
-        <v>0.0003130697941867846</v>
+        <v>9.130440089073636E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03171066666666667</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H6">
-        <v>0.09513200000000001</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I6">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J6">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.535386</v>
+        <v>0.667106</v>
       </c>
       <c r="N6">
-        <v>10.606158</v>
+        <v>2.001318</v>
       </c>
       <c r="O6">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="P6">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="Q6">
-        <v>0.112109446984</v>
+        <v>0.02115437599733333</v>
       </c>
       <c r="R6">
-        <v>1.008985022856</v>
+        <v>0.190389383976</v>
       </c>
       <c r="S6">
-        <v>9.507058170997743E-06</v>
+        <v>1.795555982466252E-06</v>
       </c>
       <c r="T6">
-        <v>9.50705817099774E-06</v>
+        <v>1.795555982466252E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03171066666666667</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H7">
-        <v>0.09513200000000001</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I7">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J7">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>521.456741</v>
       </c>
       <c r="O7">
-        <v>0.9777772251268709</v>
+        <v>0.9945745510447523</v>
       </c>
       <c r="P7">
-        <v>0.9777772251268707</v>
+        <v>0.9945745510447522</v>
       </c>
       <c r="Q7">
-        <v>5.511913631645778</v>
+        <v>5.511913631645776</v>
       </c>
       <c r="R7">
-        <v>49.607222684812</v>
+        <v>49.60722268481199</v>
       </c>
       <c r="S7">
-        <v>0.0004674189815337375</v>
+        <v>0.0004678440762037341</v>
       </c>
       <c r="T7">
-        <v>0.0004674189815337374</v>
+        <v>0.0004678440762037341</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03171066666666667</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H8">
-        <v>0.09513200000000001</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I8">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J8">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.346056</v>
+        <v>0.260372</v>
       </c>
       <c r="N8">
-        <v>1.038168</v>
+        <v>0.7811159999999999</v>
       </c>
       <c r="O8">
-        <v>0.001946656254378565</v>
+        <v>0.001489822709979835</v>
       </c>
       <c r="P8">
-        <v>0.001946656254378564</v>
+        <v>0.001489822709979834</v>
       </c>
       <c r="Q8">
-        <v>0.010973666464</v>
+        <v>0.008256569701333332</v>
       </c>
       <c r="R8">
-        <v>0.09876299817600001</v>
+        <v>0.07430912731199998</v>
       </c>
       <c r="S8">
-        <v>9.305842480630953E-07</v>
+        <v>7.008069216386944E-07</v>
       </c>
       <c r="T8">
-        <v>9.305842480630951E-07</v>
+        <v>7.008069216386943E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03171066666666667</v>
+        <v>0.03171066666666666</v>
       </c>
       <c r="H9">
-        <v>0.09513200000000001</v>
+        <v>0.09513199999999999</v>
       </c>
       <c r="I9">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="J9">
-        <v>0.0004780424103998616</v>
+        <v>0.0004703961867034368</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06908833333333335</v>
+        <v>0.020712</v>
       </c>
       <c r="N9">
-        <v>0.207265</v>
+        <v>0.062136</v>
       </c>
       <c r="O9">
-        <v>0.0003886400934759821</v>
+        <v>0.0001185120057805845</v>
       </c>
       <c r="P9">
-        <v>0.0003886400934759819</v>
+        <v>0.0001185120057805844</v>
       </c>
       <c r="Q9">
-        <v>0.00219083710888889</v>
+        <v>0.0006567913279999999</v>
       </c>
       <c r="R9">
-        <v>0.01971753398</v>
+        <v>0.005911121952</v>
       </c>
       <c r="S9">
-        <v>1.85786447063286E-07</v>
+        <v>5.574759559776258E-08</v>
       </c>
       <c r="T9">
-        <v>1.857864470632859E-07</v>
+        <v>5.574759559776258E-08</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.131391333333333</v>
+        <v>2.162051666666667</v>
       </c>
       <c r="H10">
-        <v>6.394174</v>
+        <v>6.486155</v>
       </c>
       <c r="I10">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="J10">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.535386</v>
+        <v>0.667106</v>
       </c>
       <c r="N10">
-        <v>10.606158</v>
+        <v>2.001318</v>
       </c>
       <c r="O10">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="P10">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="Q10">
-        <v>7.535291080388</v>
+        <v>1.442317639143333</v>
       </c>
       <c r="R10">
-        <v>67.817619723492</v>
+        <v>12.98085875229</v>
       </c>
       <c r="S10">
-        <v>0.0006390045849291648</v>
+        <v>0.0001224220495044085</v>
       </c>
       <c r="T10">
-        <v>0.0006390045849291645</v>
+        <v>0.0001224220495044085</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.131391333333333</v>
+        <v>2.162051666666667</v>
       </c>
       <c r="H11">
-        <v>6.394174</v>
+        <v>6.486155</v>
       </c>
       <c r="I11">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="J11">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>521.456741</v>
       </c>
       <c r="O11">
-        <v>0.9777772251268709</v>
+        <v>0.9945745510447523</v>
       </c>
       <c r="P11">
-        <v>0.9777772251268707</v>
+        <v>0.9945745510447522</v>
       </c>
       <c r="Q11">
-        <v>370.4761261585481</v>
+        <v>375.805471991206</v>
       </c>
       <c r="R11">
-        <v>3334.285135426934</v>
+        <v>3382.249247920855</v>
       </c>
       <c r="S11">
-        <v>0.03141696063185367</v>
+        <v>0.03189788077712264</v>
       </c>
       <c r="T11">
-        <v>0.03141696063185367</v>
+        <v>0.03189788077712264</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.131391333333333</v>
+        <v>2.162051666666667</v>
       </c>
       <c r="H12">
-        <v>6.394174</v>
+        <v>6.486155</v>
       </c>
       <c r="I12">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="J12">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.346056</v>
+        <v>0.260372</v>
       </c>
       <c r="N12">
-        <v>1.038168</v>
+        <v>0.7811159999999999</v>
       </c>
       <c r="O12">
-        <v>0.001946656254378565</v>
+        <v>0.001489822709979835</v>
       </c>
       <c r="P12">
-        <v>0.001946656254378564</v>
+        <v>0.001489822709979834</v>
       </c>
       <c r="Q12">
-        <v>0.7375807592479999</v>
+        <v>0.5629377165533334</v>
       </c>
       <c r="R12">
-        <v>6.638226833231999</v>
+        <v>5.06643944898</v>
       </c>
       <c r="S12">
-        <v>6.254801332647892E-05</v>
+        <v>4.778142285268286E-05</v>
       </c>
       <c r="T12">
-        <v>6.25480133264789E-05</v>
+        <v>4.778142285268286E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.131391333333333</v>
+        <v>2.162051666666667</v>
       </c>
       <c r="H13">
-        <v>6.394174</v>
+        <v>6.486155</v>
       </c>
       <c r="I13">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="J13">
-        <v>0.03213100062519577</v>
+        <v>0.03207188515291837</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.06908833333333335</v>
+        <v>0.020712</v>
       </c>
       <c r="N13">
-        <v>0.207265</v>
+        <v>0.062136</v>
       </c>
       <c r="O13">
-        <v>0.0003886400934759821</v>
+        <v>0.0001185120057805845</v>
       </c>
       <c r="P13">
-        <v>0.0003886400934759819</v>
+        <v>0.0001185120057805844</v>
       </c>
       <c r="Q13">
-        <v>0.1472542749011111</v>
+        <v>0.04478041411999999</v>
       </c>
       <c r="R13">
-        <v>1.32528847411</v>
+        <v>0.40302372708</v>
       </c>
       <c r="S13">
-        <v>1.248739508645292E-05</v>
+        <v>3.800903438636903E-06</v>
       </c>
       <c r="T13">
-        <v>1.248739508645292E-05</v>
+        <v>3.800903438636902E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.73549533333333</v>
+        <v>13.28262333333333</v>
       </c>
       <c r="H14">
-        <v>32.206486</v>
+        <v>39.84787</v>
       </c>
       <c r="I14">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="J14">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.535386</v>
+        <v>0.667106</v>
       </c>
       <c r="N14">
-        <v>10.606158</v>
+        <v>2.001318</v>
       </c>
       <c r="O14">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="P14">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="Q14">
-        <v>37.954119904532</v>
+        <v>8.860917721406667</v>
       </c>
       <c r="R14">
-        <v>341.587079140788</v>
+        <v>79.74825949266</v>
       </c>
       <c r="S14">
-        <v>0.00321856931301165</v>
+        <v>0.0007521031973157033</v>
       </c>
       <c r="T14">
-        <v>0.00321856931301165</v>
+        <v>0.0007521031973157032</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.73549533333333</v>
+        <v>13.28262333333333</v>
       </c>
       <c r="H15">
-        <v>32.206486</v>
+        <v>39.84787</v>
       </c>
       <c r="I15">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="J15">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>521.456741</v>
       </c>
       <c r="O15">
-        <v>0.9777772251268709</v>
+        <v>0.9945745510447523</v>
       </c>
       <c r="P15">
-        <v>0.9777772251268707</v>
+        <v>0.9945745510447522</v>
       </c>
       <c r="Q15">
-        <v>1866.032136513569</v>
+        <v>2308.771158443519</v>
       </c>
       <c r="R15">
-        <v>16794.28922862212</v>
+        <v>20778.94042599167</v>
       </c>
       <c r="S15">
-        <v>0.158242472405716</v>
+        <v>0.1959654998195822</v>
       </c>
       <c r="T15">
-        <v>0.158242472405716</v>
+        <v>0.1959654998195822</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.73549533333333</v>
+        <v>13.28262333333333</v>
       </c>
       <c r="H16">
-        <v>32.206486</v>
+        <v>39.84787</v>
       </c>
       <c r="I16">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="J16">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.346056</v>
+        <v>0.260372</v>
       </c>
       <c r="N16">
-        <v>1.038168</v>
+        <v>0.7811159999999999</v>
       </c>
       <c r="O16">
-        <v>0.001946656254378565</v>
+        <v>0.001489822709979835</v>
       </c>
       <c r="P16">
-        <v>0.001946656254378564</v>
+        <v>0.001489822709979834</v>
       </c>
       <c r="Q16">
-        <v>3.715082573071999</v>
+        <v>3.458423202546667</v>
       </c>
       <c r="R16">
-        <v>33.435743157648</v>
+        <v>31.12580882292</v>
       </c>
       <c r="S16">
-        <v>0.0003150448698341735</v>
+        <v>0.0002935464734112485</v>
       </c>
       <c r="T16">
-        <v>0.0003150448698341735</v>
+        <v>0.0002935464734112484</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.73549533333333</v>
+        <v>13.28262333333333</v>
       </c>
       <c r="H17">
-        <v>32.206486</v>
+        <v>39.84787</v>
       </c>
       <c r="I17">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="J17">
-        <v>0.1618389837063175</v>
+        <v>0.1970345004441647</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.06908833333333335</v>
+        <v>0.020712</v>
       </c>
       <c r="N17">
-        <v>0.207265</v>
+        <v>0.062136</v>
       </c>
       <c r="O17">
-        <v>0.0003886400934759821</v>
+        <v>0.0001185120057805845</v>
       </c>
       <c r="P17">
-        <v>0.0003886400934759819</v>
+        <v>0.0001185120057805844</v>
       </c>
       <c r="Q17">
-        <v>0.7416974800877779</v>
+        <v>0.27510969448</v>
       </c>
       <c r="R17">
-        <v>6.67527732079</v>
+        <v>2.47598725032</v>
       </c>
       <c r="S17">
-        <v>6.289711775568116E-05</v>
+        <v>2.335095385561342E-05</v>
       </c>
       <c r="T17">
-        <v>6.289711775568115E-05</v>
+        <v>2.335095385561342E-05</v>
       </c>
     </row>
   </sheetData>
